--- a/subjects_table.xlsx
+++ b/subjects_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194">
@@ -2372,16 +2372,6 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>- LITERATURA ARGENTINA-TEATRO</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
         <v>193</v>
       </c>
     </row>

--- a/subjects_table.xlsx
+++ b/subjects_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B194"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CULTURA-LATINOAMERICA-HASTA SXVI CULTURA PRECOLOMBINA</t>
+          <t>BORGES BIOGRAFIAS-BORGES JORGE LUIS -</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DOCTRINAS ECONOMIA</t>
+          <t>- LITERATURA CHECA-CUENTO</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRAGMATISMO FILOSOFIA</t>
+          <t>KANT FILOSOFIA-KANT IMMANUEL -</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>JASPERS  FILOSOFIA-JASPERS KARL - EXISTENCIALISMO FILOSOFIA</t>
+          <t xml:space="preserve"> HISTORIA-BUENOS AIRES PLAZAS-BUENOS AIRES-HISTORIA MONUMENTOS-BUENOS AIRES-HISTORIA ESCULTURA-BUENOS AIRES-HISTORIA</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA MODERNA HISTORIA CONTEMPORANEA</t>
+          <t xml:space="preserve"> ETNOLOGIA</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA MODERNA-TEXTO SECUNDARIO HISTORIA CONTEMPORANEA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOLOGIA SOCIAL-ARGENTINA</t>
+          <t xml:space="preserve"> FISICA -TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUJERES-LATINOAMERICA</t>
+          <t xml:space="preserve"> FISICA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAMILIA ETNOLOGIA</t>
+          <t xml:space="preserve"> CULTURA</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUJERES-TRABAJO</t>
+          <t xml:space="preserve"> PSICOANALISIS-FREUD SIGMUND -</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUJERES</t>
+          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO- GRADO</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOANALISIS</t>
+          <t xml:space="preserve"> MODISMOS-ARGENTINA-DICCIONARIO ESPAÑOL-MODISMOS HIPISMO-MODISMOS-ARGENTINA-DICCIONARIO MODISMOS-ARGENTINA-HIPISMO-DICCIONARIO</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-CUENTO</t>
+          <t>- LITERATURA CUBANA-POESIA</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>- LITERATURA MEXICANA-POESIA</t>
+          <t xml:space="preserve"> ESPAÑOL-RIMA-DICCIONARIO RIMA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BORGES BIOGRAFIAS-BORGES JORGE LUIS -</t>
+          <t xml:space="preserve"> ESPAÑOL-CONJUGACION-DICCIONARIO</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>- LITERATURA CHECA-CUENTO</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>KANT FILOSOFIA-KANT IMMANUEL -</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA-BUENOS AIRES PLAZAS-BUENOS AIRES-HISTORIA MONUMENTOS-BUENOS AIRES-HISTORIA ESCULTURA-BUENOS AIRES-HISTORIA</t>
+          <t xml:space="preserve"> ESPAÑOL-METRICA-DICCIONARIO METRICA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ETNOLOGIA</t>
+          <t xml:space="preserve"> ESPAÑOL-PARONIMOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> CASTELLANO-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FISICA -TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FISICA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CULTURA</t>
+          <t xml:space="preserve"> BIOLOGIA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,141 +2238,11 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOANALISIS-FREUD SIGMUND -</t>
+          <t>- LITERATURA ARGENTINA-TEATRO</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>180</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO- GRADO</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MODISMOS-ARGENTINA-DICCIONARIO ESPAÑOL-MODISMOS HIPISMO-MODISMOS-ARGENTINA-DICCIONARIO MODISMOS-ARGENTINA-HIPISMO-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>- LITERATURA CUBANA-POESIA</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-RIMA-DICCIONARIO RIMA-ESPAÑOL-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-CONJUGACION-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-METRICA-DICCIONARIO METRICA-ESPAÑOL-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-PARONIMOS-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CASTELLANO-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BIOLOGIA-TEXTO SECUNDARIO</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
